--- a/3.results/model_selection/mouette_melanocephale_R_5_test_integration.xlsx
+++ b/3.results/model_selection/mouette_melanocephale_R_5_test_integration.xlsx
@@ -6,43 +6,52 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="beta_values" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="WAIC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="perf" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="beta_values" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">dataset</t>
+  </si>
   <si>
     <t xml:space="preserve">model</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_log_bathymetry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_SST</t>
+    <t xml:space="preserve">pavlue_CS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavlue_CS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavlue_FT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pavlue_FT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV_deviance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">migralion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pelmed_migralion</t>
   </si>
   <si>
     <t xml:space="preserve">pelmed</t>
   </si>
   <si>
-    <t xml:space="preserve">migralion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pelmed_migralion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataset</t>
+    <t xml:space="preserve">beta_mean_autumn_SST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_mean_autumn_SST</t>
   </si>
 </sst>
 </file>
@@ -85,7 +94,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006400"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF90EE90"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -390,59 +412,145 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1.81</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.13</v>
+        <v>0.69</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>0.49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2" t="n">
+        <v>581</v>
+      </c>
+      <c r="H2" t="n">
+        <v>581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.71</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.58</v>
+        <v>0.68</v>
       </c>
       <c r="D3" t="n">
-        <v>0.81</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G3" t="n">
+        <v>580</v>
+      </c>
+      <c r="H3" t="n">
+        <v>580</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.29</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.4</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.73</v>
+        <v>0.51</v>
       </c>
       <c r="E4" t="n">
-        <v>0.68</v>
+        <v>0.41</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>390</v>
+      </c>
+      <c r="H4" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>390</v>
+      </c>
+      <c r="H5" t="n">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F5">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -458,57 +566,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B3" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>581</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>580.9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>387.8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>390.6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="B4" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.56</v>
       </c>
     </row>
   </sheetData>
